--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osten\OneDrive\Documents\GitHub\RC-Mechanical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A81DE-2700-40E0-9D61-AB6A3536FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E6011-5553-4960-9F42-281BC4843004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Item</t>
   </si>
@@ -190,6 +201,9 @@
   </si>
   <si>
     <t>Front Wheel Bearing</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -269,7 +283,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -316,7 +336,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A04641B9-BAC0-457D-87B8-10962BA9FBC1}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A04641B9-BAC0-457D-87B8-10962BA9FBC1}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:H43" xr:uid="{A04641B9-BAC0-457D-87B8-10962BA9FBC1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1BF9EFEC-93B2-4CF7-9505-E69D883D49F3}" name="Item"/>
@@ -324,9 +344,13 @@
     <tableColumn id="3" xr3:uid="{B3402673-8317-49ED-BAC6-4F2FF8BAE02C}" name="Pack Size"/>
     <tableColumn id="4" xr3:uid="{2BFF2E97-2148-4676-B0FD-3FF27719FFA1}" name="Pack Cost"/>
     <tableColumn id="5" xr3:uid="{D86107FE-3805-4872-8323-306EFE3C6625}" name="Link"/>
-    <tableColumn id="6" xr3:uid="{EFCCC2BA-4B5C-45AC-988A-3455C2D39063}" name=" " dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{0AEBE0B2-D0EE-4000-9441-5EF68E117D95}" name="Packs"/>
-    <tableColumn id="8" xr3:uid="{7F347E95-63D2-49FB-9A99-6857D45368A4}" name="Cost"/>
+    <tableColumn id="6" xr3:uid="{EFCCC2BA-4B5C-45AC-988A-3455C2D39063}" name=" " dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0AEBE0B2-D0EE-4000-9441-5EF68E117D95}" name="Packs" dataDxfId="1">
+      <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7F347E95-63D2-49FB-9A99-6857D45368A4}" name="Cost" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT37" sqref="AT37"/>
+      <selection activeCell="AU42" sqref="AU42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +667,18 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
+      <c r="G2">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -656,6 +691,14 @@
         <v>10</v>
       </c>
       <c r="F3" s="3"/>
+      <c r="G3" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -664,7 +707,18 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="F4" s="3"/>
+      <c r="G4">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -677,6 +731,14 @@
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
+      <c r="G5" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -689,6 +751,14 @@
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
+      <c r="G6" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -707,6 +777,14 @@
         <v>48</v>
       </c>
       <c r="F7" s="3"/>
+      <c r="G7">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -719,6 +797,14 @@
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
+      <c r="G8" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -731,6 +817,14 @@
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
+      <c r="G9" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -743,6 +837,14 @@
         <v>10</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="G10" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -755,6 +857,14 @@
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
+      <c r="G11" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -773,6 +883,14 @@
         <v>49</v>
       </c>
       <c r="F12" s="3"/>
+      <c r="G12">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>3.49</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -785,6 +903,14 @@
         <v>10</v>
       </c>
       <c r="F13" s="3"/>
+      <c r="G13" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -797,6 +923,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
+      <c r="G14" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -809,6 +943,14 @@
         <v>10</v>
       </c>
       <c r="F15" s="3"/>
+      <c r="G15" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -821,8 +963,16 @@
         <v>10</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -833,8 +983,16 @@
         <v>10</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -842,8 +1000,16 @@
         <v>4</v>
       </c>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -851,8 +1017,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -860,8 +1034,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -872,8 +1054,16 @@
         <v>10</v>
       </c>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -884,8 +1074,16 @@
         <v>10</v>
       </c>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -902,8 +1100,16 @@
         <v>48</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -920,8 +1126,16 @@
         <v>48</v>
       </c>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -932,8 +1146,16 @@
         <v>10</v>
       </c>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -950,8 +1172,16 @@
         <v>48</v>
       </c>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -968,8 +1198,16 @@
         <v>48</v>
       </c>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -980,8 +1218,16 @@
         <v>10</v>
       </c>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -992,8 +1238,16 @@
         <v>10</v>
       </c>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1004,8 +1258,16 @@
         <v>10</v>
       </c>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1016,8 +1278,16 @@
         <v>10</v>
       </c>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1028,8 +1298,16 @@
         <v>10</v>
       </c>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1040,8 +1318,16 @@
         <v>10</v>
       </c>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1058,8 +1344,16 @@
         <v>49</v>
       </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1070,8 +1364,16 @@
         <v>51</v>
       </c>
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1082,8 +1384,16 @@
         <v>10</v>
       </c>
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1100,8 +1410,16 @@
         <v>49</v>
       </c>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1112,8 +1430,16 @@
         <v>10</v>
       </c>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1124,8 +1450,16 @@
         <v>10</v>
       </c>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1142,8 +1476,16 @@
         <v>47</v>
       </c>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1154,8 +1496,16 @@
         <v>10</v>
       </c>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="e">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1172,8 +1522,16 @@
         <v>47</v>
       </c>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1190,6 +1548,23 @@
         <v>47</v>
       </c>
       <c r="F43" s="3"/>
+      <c r="G43">
+        <f>ROUNDUP(Table1[[#This Row],[Units]]/Table1[[#This Row],[Pack Size]], 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>Table1[[#This Row],[Packs]]*Table1[[#This Row],[Pack Cost]]</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="e">
+        <f>SUM(Table1[Cost])</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
